--- a/project/uploads/93/split_output/7模具导向.xlsx
+++ b/project/uploads/93/split_output/7模具导向.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\codespace\web-program\project\uploads\93\split_output\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\codespace\temp\webprogram\project\uploads\93\split_output\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{6737FA1E-62D6-4323-8015-8EE968397D49}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{3D94B0E0-64B0-4B5E-87B8-76ADDC7D553A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="30936" windowHeight="16776" xr2:uid="{4B2664CF-7DD9-472C-9A29-59970679A1A4}"/>
+    <workbookView xWindow="1140" yWindow="1140" windowWidth="14400" windowHeight="8170" xr2:uid="{65AAD4B4-C4A0-4E2F-944F-4ED6C2DD6172}"/>
   </bookViews>
   <sheets>
     <sheet name="7模具导向" sheetId="1" r:id="rId1"/>
@@ -2116,7 +2116,7 @@
         <xdr:cNvPr id="2" name="Text Box 18">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{64FF0B80-057B-46D4-B2F0-3FB93CDF671F}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E421C234-CF72-4982-B01C-7122B7F3BF84}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2126,8 +2126,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="4951095" y="3217545"/>
-          <a:ext cx="171450" cy="207645"/>
+          <a:off x="4949825" y="3298825"/>
+          <a:ext cx="171450" cy="212725"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -2176,7 +2176,7 @@
         <xdr:cNvPr id="3" name="Text Box 19">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{53D049DB-7288-4DA7-9407-95E6F56295D4}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{04CE2638-A654-48B5-8070-3D0964F29188}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2186,8 +2186,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="4932045" y="3568064"/>
-          <a:ext cx="180975" cy="215265"/>
+          <a:off x="4930775" y="3654424"/>
+          <a:ext cx="180975" cy="225425"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -2236,7 +2236,7 @@
         <xdr:cNvPr id="4" name="Picture 23">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D4B842F2-55BE-459A-86DC-865D679A1EC1}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C3322964-6B60-4248-9D93-CC57408A505C}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2253,8 +2253,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="5065395" y="9111615"/>
-          <a:ext cx="2028825" cy="1095375"/>
+          <a:off x="5064125" y="9344025"/>
+          <a:ext cx="2028825" cy="1120775"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -2288,7 +2288,7 @@
         <xdr:cNvPr id="5" name="Picture 24">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{34634044-1613-4F88-8E07-F6A896252629}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6A725F1B-340D-4D6E-888F-F942C6A6CCA5}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2305,8 +2305,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="1817370" y="9140190"/>
-          <a:ext cx="1981200" cy="1131570"/>
+          <a:off x="1816100" y="9372600"/>
+          <a:ext cx="1981200" cy="1162050"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -2340,7 +2340,7 @@
         <xdr:cNvPr id="6" name="Picture 27">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{FCBD1336-9281-4632-8BE5-205082683694}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{18DE7282-6D11-4642-8484-59C5B82A5FF1}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2357,8 +2357,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="1379220" y="11174730"/>
-          <a:ext cx="923925" cy="1245870"/>
+          <a:off x="1377950" y="11455400"/>
+          <a:ext cx="923925" cy="1276350"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -2392,7 +2392,7 @@
         <xdr:cNvPr id="7" name="Picture 28">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4BAD6C5B-CEB1-4A12-8A58-DAAD8EE80821}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{021713E4-789D-4DE9-B80A-7CACCA57DAF6}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2409,8 +2409,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="2626995" y="11146155"/>
-          <a:ext cx="990600" cy="1358265"/>
+          <a:off x="2625725" y="11426825"/>
+          <a:ext cx="990600" cy="1393825"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -2444,7 +2444,7 @@
         <xdr:cNvPr id="8" name="Picture 29">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0F6C6D29-86F5-47DE-99B8-938935C51C20}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A2D9F953-7068-486B-A728-A2F5B7B94B6E}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2461,8 +2461,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="4036695" y="11203305"/>
-          <a:ext cx="962025" cy="1264920"/>
+          <a:off x="4035425" y="11483975"/>
+          <a:ext cx="962025" cy="1295400"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -2496,7 +2496,7 @@
         <xdr:cNvPr id="9" name="Picture 1540">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7602617F-3962-4EAF-97D7-1A575DFEE3A4}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8DDEDE44-DC09-410B-B4D9-FBE022E5CD9E}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2513,8 +2513,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="5422265" y="11195050"/>
-          <a:ext cx="790575" cy="1097915"/>
+          <a:off x="5420995" y="11475720"/>
+          <a:ext cx="790575" cy="1123315"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -2548,7 +2548,7 @@
         <xdr:cNvPr id="10" name="Picture 1541">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8CF09F1B-035D-420B-91D2-C17BF0570192}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3A853B63-3061-4B6B-8FE0-3FD8601925DF}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2565,8 +2565,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="6656070" y="11315700"/>
-          <a:ext cx="742950" cy="990600"/>
+          <a:off x="6654800" y="11601450"/>
+          <a:ext cx="742950" cy="1016000"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -2600,7 +2600,7 @@
         <xdr:cNvPr id="11" name="Picture 107">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D5FADE33-05F7-4387-BC7D-6E4E13F6873C}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{814CC43B-D5FB-4CC2-B3F2-5EE4E6016FD1}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2617,8 +2617,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="1383665" y="31382335"/>
-          <a:ext cx="1343025" cy="1028700"/>
+          <a:off x="1382395" y="32181165"/>
+          <a:ext cx="1343025" cy="1054100"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -2652,7 +2652,7 @@
         <xdr:cNvPr id="12" name="CheckBox5">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{05679C67-2ED3-4CA3-83A4-2729254FB3CA}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4CD9038B-A5EF-47A1-B729-FCAD5B42AD9D}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2675,8 +2675,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="2484120" y="10290810"/>
-          <a:ext cx="152400" cy="179070"/>
+          <a:off x="2482850" y="10553700"/>
+          <a:ext cx="152400" cy="184150"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -2717,7 +2717,7 @@
         <xdr:cNvPr id="13" name="CheckBox3">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{264B1CC4-5432-4022-A537-1A28E7277CB7}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{040DA7FE-7B14-4C4B-8D86-558CE97137FE}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2740,8 +2740,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="1722120" y="12523470"/>
-          <a:ext cx="152400" cy="179070"/>
+          <a:off x="1720850" y="12839700"/>
+          <a:ext cx="152400" cy="184150"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -2782,7 +2782,7 @@
         <xdr:cNvPr id="14" name="CheckBox4">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0EF52B5E-2BF8-4743-9386-A2C97A01EC26}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F9622153-2671-4BDA-92CC-13939F040DC5}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2805,8 +2805,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="3093720" y="12523470"/>
-          <a:ext cx="152400" cy="179070"/>
+          <a:off x="3092450" y="12839700"/>
+          <a:ext cx="152400" cy="184150"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -2847,7 +2847,7 @@
         <xdr:cNvPr id="15" name="CheckBox1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{608887E9-A8A9-4AD2-A23D-FDEABC252F50}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B00E21CA-CC18-4223-B198-251D4D09F278}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2870,8 +2870,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="5493385" y="12541885"/>
-          <a:ext cx="152400" cy="179070"/>
+          <a:off x="5492115" y="12858115"/>
+          <a:ext cx="152400" cy="184150"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -2912,7 +2912,7 @@
         <xdr:cNvPr id="16" name="CheckBox2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{DA756143-8309-42A8-9797-E811D0FCB9E9}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7D899E5B-0871-497A-895F-9549D4C64FFF}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2935,8 +2935,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="6597015" y="12540615"/>
-          <a:ext cx="152400" cy="179070"/>
+          <a:off x="6595745" y="12856845"/>
+          <a:ext cx="152400" cy="184150"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -2977,7 +2977,7 @@
         <xdr:cNvPr id="17" name="CheckBox5">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A9E9C16A-07FD-4483-886C-69EE19DEE3D9}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{22DFEE1D-4568-491B-80DF-BA4BB4DC28BE}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3000,8 +3000,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="6054090" y="10292715"/>
-          <a:ext cx="152400" cy="179070"/>
+          <a:off x="6052820" y="10555605"/>
+          <a:ext cx="152400" cy="184150"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -3042,7 +3042,7 @@
         <xdr:cNvPr id="18" name="CheckBox1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D97B9280-4E63-4698-A39C-D33717B0E01D}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{860F43A7-5A3B-4F6E-BCFB-5724FFDBBAA1}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3065,8 +3065,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="4458335" y="12541250"/>
-          <a:ext cx="152400" cy="179070"/>
+          <a:off x="4457065" y="12857480"/>
+          <a:ext cx="152400" cy="184150"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -3107,7 +3107,7 @@
         <xdr:cNvPr id="19" name="图片 18">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{530A3A28-6198-4022-8F76-269B02969B6E}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B143B678-4D7F-4CA2-BED6-9DB2B9154DE0}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3123,8 +3123,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="1357630" y="1153160"/>
-          <a:ext cx="2744470" cy="1473835"/>
+          <a:off x="1356360" y="1178560"/>
+          <a:ext cx="2744470" cy="1514475"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -3155,7 +3155,7 @@
         <xdr:cNvPr id="20" name="图片 19">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D6274A2A-2CA0-4D2B-9AA5-7402F2046CD2}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5546322D-1B8A-4FAE-BF21-A56D01A79589}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3171,8 +3171,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="1969770" y="41214675"/>
-          <a:ext cx="3640455" cy="4184015"/>
+          <a:off x="1968500" y="42267505"/>
+          <a:ext cx="3640455" cy="4290695"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -3203,7 +3203,7 @@
         <xdr:cNvPr id="21" name="图片 9">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{06FD6FCD-067C-42B3-AA12-2D2008CB3385}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D4E05BD6-7319-4037-9111-670E2DAB0F2A}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3219,8 +3219,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="4189095" y="918845"/>
-          <a:ext cx="3500120" cy="2822575"/>
+          <a:off x="4187825" y="939165"/>
+          <a:ext cx="3500120" cy="2893695"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -3251,7 +3251,7 @@
         <xdr:cNvPr id="22" name="图片 10">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9959E405-9E95-4261-990C-5B88454ED30F}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{24AA360E-E753-4867-AAE0-C2B533B22F40}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3267,8 +3267,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="2007870" y="4805045"/>
-          <a:ext cx="3790950" cy="3849370"/>
+          <a:off x="2006600" y="4926965"/>
+          <a:ext cx="3790950" cy="3945890"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -3290,16 +3290,16 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>5</xdr:col>
-      <xdr:colOff>252730</xdr:colOff>
-      <xdr:row>76</xdr:row>
-      <xdr:rowOff>3175</xdr:rowOff>
+      <xdr:colOff>287020</xdr:colOff>
+      <xdr:row>75</xdr:row>
+      <xdr:rowOff>201295</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
         <xdr:cNvPr id="23" name="图片 22">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{36593B4D-8E87-4AC7-9CEE-963745E37D30}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C79A4CAB-7BF7-4794-903A-103161F0B531}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3315,8 +3315,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="7787640" y="13804265"/>
-          <a:ext cx="2439670" cy="1278890"/>
+          <a:off x="7785100" y="14150975"/>
+          <a:ext cx="2439670" cy="1309370"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -3347,7 +3347,7 @@
         <xdr:cNvPr id="24" name="图片 23">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2AC94007-55FC-458C-869C-2DEFF7E903EA}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9070C998-2207-48DF-83F7-A74A00A1FDF1}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3363,8 +3363,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="1569720" y="14544675"/>
-          <a:ext cx="5560695" cy="4898390"/>
+          <a:off x="1568450" y="14911705"/>
+          <a:ext cx="5560695" cy="5025390"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -3395,7 +3395,7 @@
         <xdr:cNvPr id="25" name="图片 6">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{86535DE1-73B8-40BC-A6E7-4AF8F6115655}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A898832F-4611-43F0-AF06-BC67C63A31FD}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3411,8 +3411,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="1553210" y="23904575"/>
-          <a:ext cx="5547995" cy="5368290"/>
+          <a:off x="1551940" y="24510365"/>
+          <a:ext cx="5547995" cy="5505450"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -3443,7 +3443,7 @@
         <xdr:cNvPr id="26" name="圆角矩形 7">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{17DA9D42-372C-4102-9CA0-690D3F60A235}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{74A997BB-F2A6-43AC-97F2-3577F247F899}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3451,8 +3451,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="2687320" y="29023310"/>
-          <a:ext cx="492760" cy="220345"/>
+          <a:off x="2686050" y="29761180"/>
+          <a:ext cx="492760" cy="225425"/>
         </a:xfrm>
         <a:prstGeom prst="roundRect">
           <a:avLst/>
@@ -3571,7 +3571,7 @@
         <xdr:cNvPr id="27" name="圆角矩形 131">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{075C0722-856E-48E0-BED9-E9C3A384A3E4}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{736402DC-BF81-42E5-B6BC-68AD01610F04}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3579,8 +3579,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="5130800" y="29056965"/>
-          <a:ext cx="368300" cy="220345"/>
+          <a:off x="5129530" y="29794835"/>
+          <a:ext cx="368300" cy="225425"/>
         </a:xfrm>
         <a:prstGeom prst="roundRect">
           <a:avLst/>
@@ -3699,7 +3699,7 @@
         <xdr:cNvPr id="28" name="图片 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5DE41FE6-8890-4702-86CC-CD9C07823076}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2E7A4C72-19BB-4777-BD26-9D9E303E69DA}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3715,8 +3715,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="1636395" y="29426535"/>
-          <a:ext cx="5541010" cy="1657350"/>
+          <a:off x="1635125" y="30174565"/>
+          <a:ext cx="5541010" cy="1697990"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -3747,7 +3747,7 @@
         <xdr:cNvPr id="29" name="图片 103">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9153EFE4-CB13-4533-BE07-164E0A2F9A27}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9E47F656-C630-48AA-8703-80E042391AD8}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3763,8 +3763,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="4321175" y="33438465"/>
-          <a:ext cx="3031490" cy="2033270"/>
+          <a:off x="4319905" y="34288095"/>
+          <a:ext cx="3031490" cy="2084070"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -3795,7 +3795,7 @@
         <xdr:cNvPr id="30" name="图片 104">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{044E7770-7625-40CA-B90D-DE9993BB914B}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{33B50749-9AAD-4083-BA5D-580D5DE05439}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3811,8 +3811,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="1493520" y="33335595"/>
-          <a:ext cx="2549525" cy="1981200"/>
+          <a:off x="1492250" y="34185225"/>
+          <a:ext cx="2549525" cy="2032000"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -3843,7 +3843,7 @@
         <xdr:cNvPr id="31" name="图片 30">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{82B4AAA6-983E-4D8B-B844-59ED31A1825A}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{ECB5748F-82A4-4E8E-ACAE-6F04EA28C2EF}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3859,8 +3859,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="1674495" y="35593655"/>
-          <a:ext cx="1704975" cy="1946275"/>
+          <a:off x="1673225" y="36499165"/>
+          <a:ext cx="1704975" cy="1997075"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -3882,7 +3882,7 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>8</xdr:col>
-      <xdr:colOff>560070</xdr:colOff>
+      <xdr:colOff>628650</xdr:colOff>
       <xdr:row>137</xdr:row>
       <xdr:rowOff>171450</xdr:rowOff>
     </xdr:to>
@@ -3891,7 +3891,7 @@
         <xdr:cNvPr id="32" name="图片 31">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B4FDAF92-A86D-4B34-9A30-2F7C8867E69D}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2C401620-91A7-4EA2-86E7-E84EDA9D69D2}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3907,8 +3907,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="7805420" y="23961725"/>
-          <a:ext cx="4992370" cy="3375025"/>
+          <a:off x="7802880" y="24567515"/>
+          <a:ext cx="4992370" cy="3461385"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -3930,7 +3930,7 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>10</xdr:col>
-      <xdr:colOff>71120</xdr:colOff>
+      <xdr:colOff>162560</xdr:colOff>
       <xdr:row>52</xdr:row>
       <xdr:rowOff>106680</xdr:rowOff>
     </xdr:to>
@@ -3939,7 +3939,7 @@
         <xdr:cNvPr id="33" name="图片 32">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1E818172-D899-48D7-82EB-519C565B6422}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EBFF03D3-4B69-4230-B6C1-1011BEFC3D12}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3955,8 +3955,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="7778115" y="7258685"/>
-          <a:ext cx="6039485" cy="3119755"/>
+          <a:off x="7775575" y="7441565"/>
+          <a:ext cx="6039485" cy="3199765"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -3977,8 +3977,8 @@
       <xdr:rowOff>175260</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>9</xdr:col>
-      <xdr:colOff>666750</xdr:colOff>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>3810</xdr:colOff>
       <xdr:row>70</xdr:row>
       <xdr:rowOff>62865</xdr:rowOff>
     </xdr:to>
@@ -3987,7 +3987,7 @@
         <xdr:cNvPr id="34" name="图片 33">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3F142BC3-9998-4F7E-9514-9F832D09C3D8}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D4C6EFF4-A91B-459E-896E-A35859FE0C96}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -4003,8 +4003,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="7749540" y="10447020"/>
-          <a:ext cx="5909310" cy="3507105"/>
+          <a:off x="7747000" y="10709910"/>
+          <a:ext cx="5909310" cy="3596005"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -9615,7 +9615,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9C1C7A15-B8E5-4027-8542-F95FED5A2EB0}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AE24C102-A14E-4188-8DEC-3BAF4BAB0110}">
   <sheetPr>
     <tabColor rgb="FF00B050"/>
   </sheetPr>
@@ -9625,13 +9625,13 @@
       <selection activeCell="B68" sqref="B68"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.6" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="16.59765625" customWidth="1"/>
-    <col min="2" max="2" width="84.59765625" style="48" customWidth="1"/>
+    <col min="1" max="1" width="16.58203125" customWidth="1"/>
+    <col min="2" max="2" width="84.58203125" style="48" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:4" ht="16" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -9642,183 +9642,183 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:4" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:4" ht="16" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="3"/>
       <c r="B2" s="4" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="3" spans="1:4" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:4" ht="16" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="3"/>
       <c r="B3" s="5" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="4" spans="1:4" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:4" ht="16" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="3"/>
       <c r="B4" s="5" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="5" spans="1:4" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:4" ht="16" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="3"/>
       <c r="B5" s="6"/>
     </row>
-    <row r="6" spans="1:4" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:4" ht="16" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="3"/>
       <c r="B6" s="7"/>
     </row>
-    <row r="7" spans="1:4" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:4" ht="16" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="3"/>
       <c r="B7" s="7"/>
     </row>
-    <row r="8" spans="1:4" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:4" ht="16" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="3"/>
       <c r="B8" s="7"/>
     </row>
-    <row r="9" spans="1:4" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:4" ht="16" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="3"/>
       <c r="B9" s="7"/>
     </row>
-    <row r="10" spans="1:4" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:4" ht="16" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="3"/>
       <c r="B10" s="7"/>
     </row>
-    <row r="11" spans="1:4" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:4" ht="16" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="3"/>
       <c r="B11" s="7"/>
     </row>
-    <row r="12" spans="1:4" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:4" ht="16" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="3"/>
       <c r="B12" s="7"/>
     </row>
-    <row r="13" spans="1:4" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:4" ht="16" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="3"/>
       <c r="B13" s="7"/>
     </row>
-    <row r="14" spans="1:4" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:4" ht="16" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="3"/>
       <c r="B14" s="7"/>
     </row>
-    <row r="15" spans="1:4" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:4" ht="16" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="3"/>
       <c r="B15" s="7"/>
     </row>
-    <row r="16" spans="1:4" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:4" ht="16" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="3"/>
       <c r="B16" s="7"/>
     </row>
-    <row r="17" spans="1:2" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:2" ht="16" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="3"/>
       <c r="B17" s="7"/>
     </row>
-    <row r="18" spans="1:2" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:2" ht="16" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="3"/>
       <c r="B18" s="7"/>
     </row>
-    <row r="19" spans="1:2" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:2" ht="16" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="3"/>
       <c r="B19" s="7"/>
     </row>
-    <row r="20" spans="1:2" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:2" ht="16" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="3"/>
       <c r="B20" s="7"/>
     </row>
-    <row r="21" spans="1:2" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:2" ht="16" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" s="3"/>
       <c r="B21" s="8"/>
     </row>
-    <row r="22" spans="1:2" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:2" ht="16" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22" s="3"/>
       <c r="B22" s="9"/>
     </row>
-    <row r="23" spans="1:2" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:2" ht="16" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A23" s="3"/>
       <c r="B23" s="9"/>
     </row>
-    <row r="24" spans="1:2" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:2" ht="16" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A24" s="3"/>
       <c r="B24" s="9" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="25" spans="1:2" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:2" ht="16" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A25" s="3"/>
       <c r="B25" s="10"/>
     </row>
-    <row r="26" spans="1:2" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:2" ht="16" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A26" s="3"/>
       <c r="B26" s="10"/>
     </row>
-    <row r="27" spans="1:2" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:2" ht="16" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A27" s="3"/>
       <c r="B27" s="10"/>
     </row>
-    <row r="28" spans="1:2" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:2" ht="16" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A28" s="3"/>
       <c r="B28" s="10"/>
     </row>
-    <row r="29" spans="1:2" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:2" ht="16" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A29" s="3"/>
       <c r="B29" s="10"/>
     </row>
-    <row r="30" spans="1:2" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:2" ht="16" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A30" s="3"/>
       <c r="B30" s="10"/>
     </row>
-    <row r="31" spans="1:2" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:2" ht="16" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A31" s="3"/>
       <c r="B31" s="10"/>
     </row>
-    <row r="32" spans="1:2" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:2" ht="16" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A32" s="3"/>
       <c r="B32" s="10"/>
     </row>
-    <row r="33" spans="1:2" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:2" ht="16" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A33" s="3"/>
       <c r="B33" s="10"/>
     </row>
-    <row r="34" spans="1:2" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:2" ht="16" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A34" s="3"/>
       <c r="B34" s="10"/>
     </row>
-    <row r="35" spans="1:2" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:2" ht="16" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A35" s="3"/>
       <c r="B35" s="10"/>
     </row>
-    <row r="36" spans="1:2" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:2" ht="16" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A36" s="3"/>
       <c r="B36" s="10"/>
     </row>
-    <row r="37" spans="1:2" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:2" ht="16" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A37" s="3"/>
       <c r="B37" s="10"/>
     </row>
-    <row r="38" spans="1:2" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:2" ht="16" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A38" s="3"/>
       <c r="B38" s="10"/>
     </row>
-    <row r="39" spans="1:2" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:2" ht="16" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A39" s="3"/>
       <c r="B39" s="10"/>
     </row>
-    <row r="40" spans="1:2" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:2" ht="16" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A40" s="3"/>
       <c r="B40" s="10"/>
     </row>
-    <row r="41" spans="1:2" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:2" ht="16" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A41" s="3"/>
       <c r="B41" s="10"/>
     </row>
-    <row r="42" spans="1:2" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:2" ht="16" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A42" s="3"/>
       <c r="B42" s="10"/>
     </row>
-    <row r="43" spans="1:2" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:2" ht="16" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A43" s="3"/>
       <c r="B43" s="10"/>
     </row>
-    <row r="44" spans="1:2" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:2" ht="16" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A44" s="3"/>
       <c r="B44" s="11"/>
     </row>
@@ -9826,540 +9826,540 @@
       <c r="A45" s="3"/>
       <c r="B45" s="4"/>
     </row>
-    <row r="46" spans="1:2" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:2" ht="16" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A46" s="3"/>
       <c r="B46" s="4" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="47" spans="1:2" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:2" ht="16" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A47" s="3"/>
       <c r="B47" s="12" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="48" spans="1:2" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:2" ht="16" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A48" s="3"/>
       <c r="B48" s="13"/>
     </row>
-    <row r="49" spans="1:3" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:3" ht="16" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A49" s="3"/>
       <c r="B49" s="13"/>
     </row>
-    <row r="50" spans="1:3" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:3" ht="16" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A50" s="3"/>
       <c r="B50" s="13"/>
     </row>
-    <row r="51" spans="1:3" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:3" ht="16" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A51" s="3"/>
       <c r="B51" s="13"/>
     </row>
-    <row r="52" spans="1:3" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:3" ht="16" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A52" s="3"/>
       <c r="B52" s="13"/>
     </row>
-    <row r="53" spans="1:3" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:3" ht="16" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A53" s="3"/>
       <c r="B53" s="14"/>
     </row>
-    <row r="54" spans="1:3" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:3" ht="16" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A54" s="3"/>
       <c r="B54" s="15" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="55" spans="1:3" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:3" ht="20" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A55" s="3"/>
       <c r="B55" s="16"/>
     </row>
-    <row r="56" spans="1:3" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:3" ht="16" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A56" s="3"/>
       <c r="B56" s="4" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="57" spans="1:3" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:3" ht="16" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A57" s="3"/>
       <c r="B57" s="12" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="58" spans="1:3" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:3" ht="16" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A58" s="3"/>
       <c r="B58" s="13"/>
     </row>
-    <row r="59" spans="1:3" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:3" ht="16" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A59" s="3"/>
       <c r="B59" s="13"/>
       <c r="C59" s="17"/>
     </row>
-    <row r="60" spans="1:3" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:3" ht="16" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A60" s="3"/>
       <c r="B60" s="13"/>
     </row>
-    <row r="61" spans="1:3" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:3" ht="16" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A61" s="3"/>
       <c r="B61" s="13"/>
     </row>
-    <row r="62" spans="1:3" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:3" ht="16" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A62" s="3"/>
       <c r="B62" s="13"/>
     </row>
-    <row r="63" spans="1:3" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:3" ht="16" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A63" s="3"/>
       <c r="B63" s="13"/>
     </row>
-    <row r="64" spans="1:3" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:3" ht="16" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A64" s="3"/>
       <c r="B64" s="14"/>
     </row>
-    <row r="65" spans="1:2" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:2" ht="16" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A65" s="3"/>
       <c r="B65" s="18" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="66" spans="1:2" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:2" ht="16" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A66" s="3"/>
       <c r="B66" s="18" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="67" spans="1:2" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:2" ht="16" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A67" s="3"/>
       <c r="B67" s="19" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="68" spans="1:2" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:2" ht="16" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A68" s="3"/>
       <c r="B68" s="20" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="69" spans="1:2" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:2" ht="16" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A69" s="3"/>
       <c r="B69" s="4" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="70" spans="1:2" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:2" ht="16" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A70" s="3"/>
       <c r="B70" s="4"/>
     </row>
-    <row r="71" spans="1:2" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:2" ht="16" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A71" s="3"/>
       <c r="B71" s="4" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="72" spans="1:2" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:2" ht="16" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A72" s="3"/>
       <c r="B72" s="4"/>
     </row>
-    <row r="73" spans="1:2" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:2" ht="16" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A73" s="3"/>
       <c r="B73" s="5"/>
     </row>
-    <row r="74" spans="1:2" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:2" ht="16" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A74" s="3"/>
       <c r="B74" s="21"/>
     </row>
-    <row r="75" spans="1:2" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:2" ht="16" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A75" s="3"/>
       <c r="B75" s="22"/>
     </row>
-    <row r="76" spans="1:2" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:2" ht="16" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A76" s="3"/>
       <c r="B76" s="22"/>
     </row>
-    <row r="77" spans="1:2" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:2" ht="16" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A77" s="3"/>
       <c r="B77" s="22"/>
     </row>
-    <row r="78" spans="1:2" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:2" ht="16" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A78" s="3"/>
       <c r="B78" s="22"/>
     </row>
-    <row r="79" spans="1:2" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:2" ht="16" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A79" s="3"/>
       <c r="B79" s="22"/>
     </row>
-    <row r="80" spans="1:2" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:2" ht="16" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A80" s="3"/>
       <c r="B80" s="22"/>
     </row>
-    <row r="81" spans="1:2" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:2" ht="16" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A81" s="3"/>
       <c r="B81" s="22"/>
     </row>
-    <row r="82" spans="1:2" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:2" ht="16" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A82" s="3"/>
       <c r="B82" s="22"/>
     </row>
-    <row r="83" spans="1:2" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:2" ht="16" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A83" s="3"/>
       <c r="B83" s="22"/>
     </row>
-    <row r="84" spans="1:2" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:2" ht="16" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A84" s="3"/>
       <c r="B84" s="22"/>
     </row>
-    <row r="85" spans="1:2" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:2" ht="16" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A85" s="3"/>
       <c r="B85" s="22"/>
     </row>
-    <row r="86" spans="1:2" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:2" ht="16" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A86" s="3"/>
       <c r="B86" s="22"/>
     </row>
-    <row r="87" spans="1:2" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:2" ht="16" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A87" s="3"/>
       <c r="B87" s="22"/>
     </row>
-    <row r="88" spans="1:2" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:2" ht="16" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A88" s="3"/>
       <c r="B88" s="22"/>
     </row>
-    <row r="89" spans="1:2" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:2" ht="16" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A89" s="3"/>
       <c r="B89" s="22"/>
     </row>
-    <row r="90" spans="1:2" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:2" ht="16" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A90" s="3"/>
       <c r="B90" s="22"/>
     </row>
-    <row r="91" spans="1:2" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:2" ht="16" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A91" s="3"/>
       <c r="B91" s="22"/>
     </row>
-    <row r="92" spans="1:2" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:2" ht="16" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A92" s="3"/>
       <c r="B92" s="22"/>
     </row>
-    <row r="93" spans="1:2" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:2" ht="16" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A93" s="3"/>
       <c r="B93" s="22"/>
     </row>
-    <row r="94" spans="1:2" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:2" ht="16" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A94" s="3"/>
       <c r="B94" s="22"/>
     </row>
-    <row r="95" spans="1:2" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:2" ht="16" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A95" s="3"/>
       <c r="B95" s="22"/>
     </row>
-    <row r="96" spans="1:2" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:2" ht="16" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A96" s="3"/>
       <c r="B96" s="22"/>
     </row>
-    <row r="97" spans="1:2" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:2" ht="16" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A97" s="3"/>
       <c r="B97" s="22"/>
     </row>
-    <row r="98" spans="1:2" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:2" ht="16" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A98" s="3"/>
       <c r="B98" s="22"/>
     </row>
-    <row r="99" spans="1:2" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:2" ht="16" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A99" s="3"/>
       <c r="B99" s="23"/>
     </row>
-    <row r="100" spans="1:2" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:2" ht="16" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A100" s="3"/>
       <c r="B100" s="20" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="101" spans="1:2" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:2" ht="16" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A101" s="3"/>
       <c r="B101" s="20" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="102" spans="1:2" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:2" ht="16" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A102" s="3"/>
       <c r="B102" s="20" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="103" spans="1:2" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:2" ht="16" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A103" s="3"/>
       <c r="B103" s="4" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="104" spans="1:2" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:2" ht="16" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A104" s="3"/>
       <c r="B104" s="4" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="105" spans="1:2" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:2" ht="16" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A105" s="3"/>
       <c r="B105" s="4" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="106" spans="1:2" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:2" ht="16" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A106" s="3"/>
       <c r="B106" s="4" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="107" spans="1:2" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:2" ht="16" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A107" s="3"/>
       <c r="B107" s="4" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="108" spans="1:2" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:2" ht="16" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A108" s="3"/>
       <c r="B108" s="20"/>
     </row>
-    <row r="109" spans="1:2" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:2" ht="16" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A109" s="3"/>
       <c r="B109" s="24"/>
     </row>
-    <row r="110" spans="1:2" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:2" ht="16" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A110" s="3"/>
       <c r="B110" s="25"/>
     </row>
-    <row r="111" spans="1:2" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:2" ht="16" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A111" s="3"/>
       <c r="B111" s="25"/>
     </row>
-    <row r="112" spans="1:2" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:2" ht="16" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A112" s="3"/>
       <c r="B112" s="25"/>
     </row>
-    <row r="113" spans="1:2" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:2" ht="16" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A113" s="3"/>
       <c r="B113" s="25"/>
     </row>
-    <row r="114" spans="1:2" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:2" ht="16" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A114" s="3"/>
       <c r="B114" s="25"/>
     </row>
-    <row r="115" spans="1:2" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:2" ht="16" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A115" s="3"/>
       <c r="B115" s="25"/>
     </row>
-    <row r="116" spans="1:2" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:2" ht="16" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A116" s="3"/>
       <c r="B116" s="25"/>
     </row>
-    <row r="117" spans="1:2" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:2" ht="16" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A117" s="3"/>
       <c r="B117" s="25"/>
     </row>
-    <row r="118" spans="1:2" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:2" ht="16" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A118" s="3"/>
       <c r="B118" s="26"/>
     </row>
-    <row r="119" spans="1:2" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:2" ht="16" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A119" s="3"/>
       <c r="B119" s="27" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="120" spans="1:2" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:2" ht="16" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A120" s="3"/>
       <c r="B120" s="27" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="121" spans="1:2" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:2" ht="16" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A121" s="3"/>
       <c r="B121" s="28"/>
     </row>
-    <row r="122" spans="1:2" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:2" ht="16" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A122" s="3"/>
       <c r="B122" s="28"/>
     </row>
-    <row r="123" spans="1:2" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:2" ht="16" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A123" s="3"/>
       <c r="B123" s="28"/>
     </row>
-    <row r="124" spans="1:2" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:2" ht="16" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A124" s="3"/>
       <c r="B124" s="28"/>
     </row>
-    <row r="125" spans="1:2" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="125" spans="1:2" ht="16" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A125" s="3"/>
       <c r="B125" s="28"/>
     </row>
-    <row r="126" spans="1:2" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="126" spans="1:2" ht="16" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A126" s="3"/>
       <c r="B126" s="28"/>
     </row>
-    <row r="127" spans="1:2" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="127" spans="1:2" ht="16" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A127" s="3"/>
       <c r="B127" s="28"/>
     </row>
-    <row r="128" spans="1:2" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="128" spans="1:2" ht="16" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A128" s="3"/>
       <c r="B128" s="28"/>
     </row>
-    <row r="129" spans="1:2" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="129" spans="1:2" ht="16" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A129" s="3"/>
       <c r="B129" s="28"/>
     </row>
-    <row r="130" spans="1:2" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="130" spans="1:2" ht="16" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A130" s="3"/>
       <c r="B130" s="28"/>
     </row>
-    <row r="131" spans="1:2" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="131" spans="1:2" ht="16" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A131" s="3"/>
       <c r="B131" s="28"/>
     </row>
-    <row r="132" spans="1:2" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="132" spans="1:2" ht="16" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A132" s="3"/>
       <c r="B132" s="28"/>
     </row>
-    <row r="133" spans="1:2" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="133" spans="1:2" ht="16" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A133" s="3"/>
       <c r="B133" s="28"/>
     </row>
-    <row r="134" spans="1:2" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="134" spans="1:2" ht="16" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A134" s="3"/>
       <c r="B134" s="28"/>
     </row>
-    <row r="135" spans="1:2" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="135" spans="1:2" ht="16" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A135" s="3"/>
       <c r="B135" s="28"/>
     </row>
-    <row r="136" spans="1:2" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="136" spans="1:2" ht="16" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A136" s="3"/>
       <c r="B136" s="28"/>
     </row>
-    <row r="137" spans="1:2" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="137" spans="1:2" ht="16" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A137" s="3"/>
       <c r="B137" s="28"/>
     </row>
-    <row r="138" spans="1:2" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="138" spans="1:2" ht="16" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A138" s="3"/>
       <c r="B138" s="28"/>
     </row>
-    <row r="139" spans="1:2" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="139" spans="1:2" ht="16" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A139" s="3"/>
       <c r="B139" s="28"/>
     </row>
-    <row r="140" spans="1:2" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="140" spans="1:2" ht="16" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A140" s="3"/>
       <c r="B140" s="28"/>
     </row>
-    <row r="141" spans="1:2" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="141" spans="1:2" ht="16" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A141" s="3"/>
       <c r="B141" s="28"/>
     </row>
-    <row r="142" spans="1:2" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="142" spans="1:2" ht="16" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A142" s="3"/>
       <c r="B142" s="28"/>
     </row>
-    <row r="143" spans="1:2" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="143" spans="1:2" ht="16" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A143" s="3"/>
       <c r="B143" s="28"/>
     </row>
-    <row r="144" spans="1:2" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="144" spans="1:2" ht="16" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A144" s="3"/>
       <c r="B144" s="24"/>
     </row>
-    <row r="145" spans="1:2" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="145" spans="1:2" ht="16" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A145" s="3"/>
       <c r="B145" s="25"/>
     </row>
-    <row r="146" spans="1:2" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="146" spans="1:2" ht="16" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A146" s="3"/>
       <c r="B146" s="25"/>
     </row>
-    <row r="147" spans="1:2" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="147" spans="1:2" ht="16" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A147" s="3"/>
       <c r="B147" s="25"/>
     </row>
-    <row r="148" spans="1:2" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="148" spans="1:2" ht="16" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A148" s="3"/>
       <c r="B148" s="25"/>
     </row>
-    <row r="149" spans="1:2" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="149" spans="1:2" ht="16" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A149" s="3"/>
       <c r="B149" s="25"/>
     </row>
-    <row r="150" spans="1:2" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="150" spans="1:2" ht="16" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A150" s="3"/>
       <c r="B150" s="25"/>
     </row>
-    <row r="151" spans="1:2" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="151" spans="1:2" ht="16" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A151" s="3"/>
       <c r="B151" s="25"/>
     </row>
-    <row r="152" spans="1:2" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="152" spans="1:2" ht="16" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A152" s="3"/>
       <c r="B152" s="25"/>
     </row>
-    <row r="153" spans="1:2" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="153" spans="1:2" ht="16" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A153" s="3"/>
       <c r="B153" s="25"/>
     </row>
-    <row r="154" spans="1:2" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="154" spans="1:2" ht="16" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A154" s="3"/>
       <c r="B154" s="25"/>
     </row>
-    <row r="155" spans="1:2" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="155" spans="1:2" ht="16" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A155" s="3"/>
       <c r="B155" s="26"/>
     </row>
-    <row r="156" spans="1:2" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="156" spans="1:2" ht="16" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A156" s="3"/>
       <c r="B156" s="29"/>
     </row>
-    <row r="157" spans="1:2" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="157" spans="1:2" ht="16" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A157" s="3"/>
       <c r="B157" s="29"/>
     </row>
-    <row r="158" spans="1:2" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="158" spans="1:2" ht="16" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A158" s="3"/>
       <c r="B158" s="29" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="159" spans="1:2" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="159" spans="1:2" ht="16" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A159" s="3"/>
       <c r="B159" s="24"/>
     </row>
-    <row r="160" spans="1:2" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="160" spans="1:2" ht="16" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A160" s="3"/>
       <c r="B160" s="25"/>
     </row>
-    <row r="161" spans="1:2" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="161" spans="1:2" ht="16" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A161" s="3"/>
       <c r="B161" s="25"/>
     </row>
-    <row r="162" spans="1:2" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="162" spans="1:2" ht="16" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A162" s="3"/>
       <c r="B162" s="25"/>
     </row>
-    <row r="163" spans="1:2" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="163" spans="1:2" ht="16" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A163" s="3"/>
       <c r="B163" s="25"/>
     </row>
-    <row r="164" spans="1:2" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="164" spans="1:2" ht="16" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A164" s="30"/>
       <c r="B164" s="26"/>
     </row>
-    <row r="165" spans="1:2" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="165" spans="1:2" ht="16" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A165" s="31"/>
       <c r="B165" s="32" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="166" spans="1:2" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="166" spans="1:2" ht="16" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A166" s="31"/>
       <c r="B166" s="33" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="167" spans="1:2" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="167" spans="1:2" ht="16" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A167" s="34" t="s">
         <v>31</v>
       </c>
@@ -10367,103 +10367,103 @@
         <v>32</v>
       </c>
     </row>
-    <row r="168" spans="1:2" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="168" spans="1:2" ht="16" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A168" s="36"/>
       <c r="B168" s="33"/>
     </row>
-    <row r="169" spans="1:2" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="169" spans="1:2" ht="16" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A169" s="36"/>
       <c r="B169" s="24"/>
     </row>
-    <row r="170" spans="1:2" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="170" spans="1:2" ht="16" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A170" s="36"/>
       <c r="B170" s="25"/>
     </row>
-    <row r="171" spans="1:2" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="171" spans="1:2" ht="16" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A171" s="36"/>
       <c r="B171" s="25"/>
     </row>
-    <row r="172" spans="1:2" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="172" spans="1:2" ht="16" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A172" s="36"/>
       <c r="B172" s="25"/>
     </row>
-    <row r="173" spans="1:2" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="173" spans="1:2" ht="16" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A173" s="36"/>
       <c r="B173" s="25"/>
     </row>
-    <row r="174" spans="1:2" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="174" spans="1:2" ht="16" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A174" s="36"/>
       <c r="B174" s="25"/>
     </row>
-    <row r="175" spans="1:2" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="175" spans="1:2" ht="16" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A175" s="36"/>
       <c r="B175" s="25"/>
     </row>
-    <row r="176" spans="1:2" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="176" spans="1:2" ht="16" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A176" s="36"/>
       <c r="B176" s="25"/>
     </row>
-    <row r="177" spans="1:2" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="177" spans="1:2" ht="16" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A177" s="36"/>
       <c r="B177" s="25"/>
     </row>
-    <row r="178" spans="1:2" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="178" spans="1:2" ht="16" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A178" s="36"/>
       <c r="B178" s="25"/>
     </row>
-    <row r="179" spans="1:2" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="179" spans="1:2" ht="16" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A179" s="36"/>
       <c r="B179" s="25"/>
     </row>
-    <row r="180" spans="1:2" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="180" spans="1:2" ht="16" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A180" s="36"/>
       <c r="B180" s="25"/>
     </row>
-    <row r="181" spans="1:2" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="181" spans="1:2" ht="16" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A181" s="36"/>
       <c r="B181" s="25"/>
     </row>
-    <row r="182" spans="1:2" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="182" spans="1:2" ht="16" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A182" s="36"/>
       <c r="B182" s="25"/>
     </row>
-    <row r="183" spans="1:2" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="183" spans="1:2" ht="16" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A183" s="36"/>
       <c r="B183" s="25"/>
     </row>
-    <row r="184" spans="1:2" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="184" spans="1:2" ht="16" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A184" s="36"/>
       <c r="B184" s="25"/>
     </row>
-    <row r="185" spans="1:2" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="185" spans="1:2" ht="16" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A185" s="36"/>
       <c r="B185" s="25"/>
     </row>
-    <row r="186" spans="1:2" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="186" spans="1:2" ht="16" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A186" s="36"/>
       <c r="B186" s="25"/>
     </row>
-    <row r="187" spans="1:2" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="187" spans="1:2" ht="16" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A187" s="36"/>
       <c r="B187" s="25"/>
     </row>
-    <row r="188" spans="1:2" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="188" spans="1:2" ht="16" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A188" s="36"/>
       <c r="B188" s="25"/>
     </row>
-    <row r="189" spans="1:2" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="189" spans="1:2" ht="16" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A189" s="36"/>
       <c r="B189" s="25"/>
     </row>
-    <row r="190" spans="1:2" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="190" spans="1:2" ht="16" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A190" s="36"/>
       <c r="B190" s="25"/>
     </row>
-    <row r="191" spans="1:2" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="191" spans="1:2" ht="16" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A191" s="36"/>
       <c r="B191" s="26"/>
     </row>
-    <row r="192" spans="1:2" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="192" spans="1:2" ht="16" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A192" s="37" t="s">
         <v>33</v>
       </c>
@@ -10471,47 +10471,47 @@
         <v>34</v>
       </c>
     </row>
-    <row r="193" spans="1:2" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="193" spans="1:2" ht="16" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A193" s="37"/>
       <c r="B193" s="38"/>
     </row>
-    <row r="194" spans="1:2" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="194" spans="1:2" ht="16" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A194" s="37"/>
       <c r="B194" s="38"/>
     </row>
-    <row r="195" spans="1:2" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="195" spans="1:2" ht="16" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A195" s="37"/>
       <c r="B195" s="38"/>
     </row>
-    <row r="196" spans="1:2" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="196" spans="1:2" ht="16" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A196" s="37"/>
       <c r="B196" s="38"/>
     </row>
-    <row r="197" spans="1:2" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="197" spans="1:2" ht="16" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A197" s="37"/>
       <c r="B197" s="38"/>
     </row>
-    <row r="198" spans="1:2" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="198" spans="1:2" ht="16" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A198" s="37"/>
       <c r="B198" s="38"/>
     </row>
-    <row r="199" spans="1:2" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="199" spans="1:2" ht="16" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A199" s="37"/>
       <c r="B199" s="38"/>
     </row>
-    <row r="200" spans="1:2" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="200" spans="1:2" ht="16" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A200" s="37"/>
       <c r="B200" s="38"/>
     </row>
-    <row r="201" spans="1:2" ht="10.050000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="201" spans="1:2" ht="10" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A201" s="37"/>
       <c r="B201" s="38"/>
     </row>
-    <row r="202" spans="1:2" ht="15.9" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="202" spans="1:2" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A202" s="37"/>
       <c r="B202" s="38"/>
     </row>
-    <row r="203" spans="1:2" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="203" spans="1:2" ht="16" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A203" s="39" t="s">
         <v>35</v>
       </c>
@@ -10519,146 +10519,146 @@
         <v>36</v>
       </c>
     </row>
-    <row r="204" spans="1:2" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="204" spans="1:2" ht="16" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A204" s="41"/>
       <c r="B204" s="42" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="205" spans="1:2" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="205" spans="1:2" ht="16" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A205" s="41"/>
       <c r="B205" s="42" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="206" spans="1:2" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="206" spans="1:2" ht="16" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A206" s="41"/>
       <c r="B206" s="43" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="207" spans="1:2" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="207" spans="1:2" ht="16" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A207" s="41"/>
       <c r="B207" s="44" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="208" spans="1:2" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="208" spans="1:2" ht="16" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A208" s="41"/>
       <c r="B208" s="44" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="209" spans="1:2" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="209" spans="1:2" ht="16" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A209" s="41"/>
       <c r="B209" s="44"/>
     </row>
-    <row r="210" spans="1:2" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="210" spans="1:2" ht="16" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A210" s="41"/>
       <c r="B210" s="45"/>
     </row>
-    <row r="211" spans="1:2" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="211" spans="1:2" ht="16" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A211" s="41"/>
       <c r="B211" s="45"/>
     </row>
-    <row r="212" spans="1:2" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="212" spans="1:2" ht="16" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A212" s="41"/>
       <c r="B212" s="45"/>
     </row>
-    <row r="213" spans="1:2" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="213" spans="1:2" ht="16" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A213" s="41"/>
       <c r="B213" s="45"/>
     </row>
-    <row r="214" spans="1:2" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="214" spans="1:2" ht="16" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A214" s="41"/>
       <c r="B214" s="45"/>
     </row>
-    <row r="215" spans="1:2" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="215" spans="1:2" ht="16" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A215" s="41"/>
       <c r="B215" s="45"/>
     </row>
-    <row r="216" spans="1:2" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="216" spans="1:2" ht="16" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A216" s="41"/>
       <c r="B216" s="45"/>
     </row>
-    <row r="217" spans="1:2" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="217" spans="1:2" ht="16" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A217" s="41"/>
       <c r="B217" s="45"/>
     </row>
-    <row r="218" spans="1:2" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="218" spans="1:2" ht="16" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A218" s="41"/>
       <c r="B218" s="45"/>
     </row>
-    <row r="219" spans="1:2" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="219" spans="1:2" ht="16" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A219" s="41"/>
       <c r="B219" s="45"/>
     </row>
-    <row r="220" spans="1:2" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="220" spans="1:2" ht="16" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A220" s="41"/>
       <c r="B220" s="45"/>
     </row>
-    <row r="221" spans="1:2" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="221" spans="1:2" ht="16" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A221" s="41"/>
       <c r="B221" s="45"/>
     </row>
-    <row r="222" spans="1:2" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="222" spans="1:2" ht="16" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A222" s="41"/>
       <c r="B222" s="45"/>
     </row>
-    <row r="223" spans="1:2" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="223" spans="1:2" ht="16" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A223" s="41"/>
       <c r="B223" s="45"/>
     </row>
-    <row r="224" spans="1:2" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="224" spans="1:2" ht="16" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A224" s="41"/>
       <c r="B224" s="45"/>
     </row>
-    <row r="225" spans="1:2" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="225" spans="1:2" ht="16" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A225" s="41"/>
       <c r="B225" s="45"/>
     </row>
-    <row r="226" spans="1:2" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="226" spans="1:2" ht="16" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A226" s="41"/>
       <c r="B226" s="45"/>
     </row>
-    <row r="227" spans="1:2" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="227" spans="1:2" ht="16" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A227" s="41"/>
       <c r="B227" s="45"/>
     </row>
-    <row r="228" spans="1:2" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="228" spans="1:2" ht="16" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A228" s="41"/>
       <c r="B228" s="45"/>
     </row>
-    <row r="229" spans="1:2" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="229" spans="1:2" ht="16" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A229" s="41"/>
       <c r="B229" s="45"/>
     </row>
-    <row r="230" spans="1:2" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="230" spans="1:2" ht="16" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A230" s="41"/>
       <c r="B230" s="45"/>
     </row>
-    <row r="231" spans="1:2" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="231" spans="1:2" ht="16" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A231" s="46"/>
       <c r="B231" s="47"/>
     </row>
-    <row r="232" spans="1:2" ht="15.9" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="233" spans="1:2" ht="15.9" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="234" spans="1:2" ht="15.9" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="235" spans="1:2" ht="15.9" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="236" spans="1:2" ht="15.9" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="237" spans="1:2" ht="15.9" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="238" spans="1:2" ht="15.9" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="239" spans="1:2" ht="15.9" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="240" spans="1:2" ht="15.9" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="241" ht="15.9" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="242" ht="15.9" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="243" ht="15.9" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="244" ht="15.9" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="245" ht="15.9" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="246" ht="15.9" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="247" ht="15.9" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="248" ht="15.9" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="249" ht="15.9" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="232" spans="1:2" ht="16" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="233" spans="1:2" ht="16" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="234" spans="1:2" ht="16" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="235" spans="1:2" ht="16" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="236" spans="1:2" ht="16" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="237" spans="1:2" ht="16" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="238" spans="1:2" ht="16" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="239" spans="1:2" ht="16" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="240" spans="1:2" ht="16" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="241" ht="16" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="242" ht="16" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="243" ht="16" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="244" ht="16" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="245" ht="16" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="246" ht="16" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="247" ht="16" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="248" ht="16" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="249" ht="16" customHeight="1" x14ac:dyDescent="0.25"/>
   </sheetData>
   <mergeCells count="14">
     <mergeCell ref="A167:A191"/>
@@ -10678,7 +10678,7 @@
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <hyperlinks>
-    <hyperlink ref="D1" location="目录!A1" display="返回" xr:uid="{1861D9A6-66F5-4086-95DC-5E35ECBEBE49}"/>
+    <hyperlink ref="D1" location="目录!A1" display="返回" xr:uid="{A390E04E-257C-4909-86B2-2772F6313D1B}"/>
   </hyperlinks>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup paperSize="9" scale="58" orientation="portrait" r:id="rId1"/>
